--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Intern\Ryerson\Project_Kinematics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1953A90-F066-4A2D-9863-9269952CE622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB134F51-9CB0-4E8F-83CA-0C1D6C97E6D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{32A22D29-5207-4CF8-ABE4-D863753790BF}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Model</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>ELM</t>
+  </si>
+  <si>
+    <t>GPR</t>
   </si>
 </sst>
 </file>
@@ -471,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B7C98C5-676A-4EDC-AB85-E96F184A74B5}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -566,28 +569,36 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="B10" s="2">
+        <f>100-3.83499355624234</f>
+        <v>96.165006443757662</v>
+      </c>
+      <c r="C10" s="2">
+        <f>100-1.8313321705909</f>
+        <v>98.168667829409102</v>
+      </c>
+      <c r="D10" s="2">
+        <v>59</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
@@ -616,6 +627,9 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Intern\Ryerson\Project_Kinematics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB134F51-9CB0-4E8F-83CA-0C1D6C97E6D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7056E090-A2C7-472F-8ECE-6EECCBABCB98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{32A22D29-5207-4CF8-ABE4-D863753790BF}"/>
   </bookViews>
@@ -34,33 +34,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Model</t>
   </si>
   <si>
-    <t>Test Accuracy</t>
-  </si>
-  <si>
-    <t>Training Accuracy</t>
-  </si>
-  <si>
     <t>Max Error (mm)</t>
   </si>
   <si>
     <t>Min Error (mm)</t>
   </si>
   <si>
-    <t>Input (Position) -- Output(Tendon Lengths)</t>
-  </si>
-  <si>
     <t>KNNR</t>
   </si>
   <si>
-    <t>Decision
-Tree</t>
-  </si>
-  <si>
     <t>SVR</t>
   </si>
   <si>
@@ -77,13 +64,34 @@
   </si>
   <si>
     <t>GPR</t>
+  </si>
+  <si>
+    <t>Input (Position + Orientation) -- Output(Tendon Lengths)</t>
+  </si>
+  <si>
+    <t>Cascade Correlation</t>
+  </si>
+  <si>
+    <t>Decision Tree</t>
+  </si>
+  <si>
+    <t>DSN</t>
+  </si>
+  <si>
+    <t>Multilayer MKL</t>
+  </si>
+  <si>
+    <t>RMSE Training</t>
+  </si>
+  <si>
+    <t>RMSE Testing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,6 +117,20 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -140,11 +162,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -158,6 +177,28 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -474,162 +515,251 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B7C98C5-676A-4EDC-AB85-E96F184A74B5}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B4" sqref="B4:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1.50651218914247</v>
+      </c>
+      <c r="C3" s="7">
+        <v>1.86971312251206</v>
+      </c>
+      <c r="D3" s="7">
+        <v>7.8333333333333304</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7">
+        <v>6.4509834051132202</v>
+      </c>
+      <c r="E5" s="8">
+        <v>1.1539459228515601E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="7">
+        <v>2.6494051521665201</v>
+      </c>
+      <c r="C7" s="7">
+        <v>2.6885279969917799</v>
+      </c>
+      <c r="D7" s="7">
+        <v>6.2494883537292498</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1.25861167907892E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9">
+        <v>1.7609716069081101</v>
+      </c>
+      <c r="C9" s="9">
+        <v>1.8445728282751099</v>
+      </c>
+      <c r="D9" s="10">
+        <v>5.8466868448892404</v>
+      </c>
+      <c r="E9" s="11">
+        <v>3.60780660886739E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="7">
+        <v>1.16527788489252</v>
+      </c>
+      <c r="C10" s="7">
+        <v>1.9655434645693</v>
+      </c>
+      <c r="D10" s="7">
+        <v>11</v>
+      </c>
+      <c r="E10" s="12">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2">
-        <v>96.531999999999996</v>
-      </c>
-      <c r="C3" s="2">
-        <v>96.887</v>
-      </c>
-      <c r="D3" s="2">
-        <v>48</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="B11" s="1">
+        <v>9.8516289974721893E-2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.11268232319789</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="2">
-        <f>100-3.83499355624234</f>
-        <v>96.165006443757662</v>
-      </c>
-      <c r="C10" s="2">
-        <f>100-1.8313321705909</f>
-        <v>98.168667829409102</v>
-      </c>
-      <c r="D10" s="2">
-        <v>59</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="3"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="5"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="3"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="3"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="4"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
